--- a/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>390</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>270</v>
       </c>
     </row>
@@ -485,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,17 +635,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>390</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>350</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,22 +586,6 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B19" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>270</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -613,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,14 +673,6 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>350</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -671,6 +672,397 @@
       </c>
       <c r="B8" t="n">
         <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-188.858714260272</v>
+      </c>
+      <c r="D2" t="n">
+        <v>213.8227366162305</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-158.1055062662614</v>
+      </c>
+      <c r="D3" t="n">
+        <v>229.1782457905653</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-146.2485002260766</v>
+      </c>
+      <c r="D4" t="n">
+        <v>243.6244585396699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-108.2546156293941</v>
+      </c>
+      <c r="D5" t="n">
+        <v>271.2687388692803</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>88</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-100.9559277356119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>285.0360130068379</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>103</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-93.07577653198234</v>
+      </c>
+      <c r="D7" t="n">
+        <v>308.038007804622</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>118</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-81.73474403880397</v>
+      </c>
+      <c r="D8" t="n">
+        <v>305.0119520502283</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>148</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-50.5552212464661</v>
+      </c>
+      <c r="D9" t="n">
+        <v>348.3662611191471</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>163</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-21.28925371045343</v>
+      </c>
+      <c r="D10" t="n">
+        <v>365.0164580439715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>178</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-20.9197227339335</v>
+      </c>
+      <c r="D11" t="n">
+        <v>375.2216858491018</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.269052105489651</v>
+      </c>
+      <c r="D12" t="n">
+        <v>382.4200197913253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>207</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5.381024233271095</v>
+      </c>
+      <c r="D13" t="n">
+        <v>407.0069994110447</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>311</v>
+      </c>
+      <c r="C14" t="n">
+        <v>101.7321139755431</v>
+      </c>
+      <c r="D14" t="n">
+        <v>499.1458015266226</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>326</v>
+      </c>
+      <c r="C15" t="n">
+        <v>132.2965326440833</v>
+      </c>
+      <c r="D15" t="n">
+        <v>517.2241847806027</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>356</v>
+      </c>
+      <c r="C16" t="n">
+        <v>156.2550372241217</v>
+      </c>
+      <c r="D16" t="n">
+        <v>550.1360639969877</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>371</v>
+      </c>
+      <c r="C17" t="n">
+        <v>151.9049238179728</v>
+      </c>
+      <c r="D17" t="n">
+        <v>564.7317049688149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>415</v>
+      </c>
+      <c r="C18" t="n">
+        <v>213.1826002402472</v>
+      </c>
+      <c r="D18" t="n">
+        <v>622.0703144495137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>430</v>
+      </c>
+      <c r="C19" t="n">
+        <v>228.049112920623</v>
+      </c>
+      <c r="D19" t="n">
+        <v>624.9822311758999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>445</v>
+      </c>
+      <c r="C20" t="n">
+        <v>255.3693283485948</v>
+      </c>
+      <c r="D20" t="n">
+        <v>636.900398491346</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>460</v>
+      </c>
+      <c r="C21" t="n">
+        <v>248.8865893315744</v>
+      </c>
+      <c r="D21" t="n">
+        <v>664.7457304503345</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>475</v>
+      </c>
+      <c r="C22" t="n">
+        <v>280.297783913797</v>
+      </c>
+      <c r="D22" t="n">
+        <v>691.8313905845878</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>489</v>
+      </c>
+      <c r="C23" t="n">
+        <v>293.6652108723027</v>
+      </c>
+      <c r="D23" t="n">
+        <v>692.875916868991</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>504</v>
+      </c>
+      <c r="C24" t="n">
+        <v>313.9369297346863</v>
+      </c>
+      <c r="D24" t="n">
+        <v>712.1068818704352</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>519</v>
+      </c>
+      <c r="C25" t="n">
+        <v>330.9573435869801</v>
+      </c>
+      <c r="D25" t="n">
+        <v>715.4670458489239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>534</v>
+      </c>
+      <c r="C26" t="n">
+        <v>325.682828113774</v>
+      </c>
+      <c r="D26" t="n">
+        <v>736.2643963286756</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BS1LL9_po_data.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,16 +704,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -722,12 +712,6 @@
       <c r="B2" t="n">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>-188.858714260272</v>
-      </c>
-      <c r="D2" t="n">
-        <v>213.8227366162305</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -736,12 +720,6 @@
       <c r="B3" t="n">
         <v>44</v>
       </c>
-      <c r="C3" t="n">
-        <v>-158.1055062662614</v>
-      </c>
-      <c r="D3" t="n">
-        <v>229.1782457905653</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -750,12 +728,6 @@
       <c r="B4" t="n">
         <v>59</v>
       </c>
-      <c r="C4" t="n">
-        <v>-146.2485002260766</v>
-      </c>
-      <c r="D4" t="n">
-        <v>243.6244585396699</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -764,12 +736,6 @@
       <c r="B5" t="n">
         <v>74</v>
       </c>
-      <c r="C5" t="n">
-        <v>-108.2546156293941</v>
-      </c>
-      <c r="D5" t="n">
-        <v>271.2687388692803</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -778,12 +744,6 @@
       <c r="B6" t="n">
         <v>88</v>
       </c>
-      <c r="C6" t="n">
-        <v>-100.9559277356119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>285.0360130068379</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -792,12 +752,6 @@
       <c r="B7" t="n">
         <v>103</v>
       </c>
-      <c r="C7" t="n">
-        <v>-93.07577653198234</v>
-      </c>
-      <c r="D7" t="n">
-        <v>308.038007804622</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -806,12 +760,6 @@
       <c r="B8" t="n">
         <v>118</v>
       </c>
-      <c r="C8" t="n">
-        <v>-81.73474403880397</v>
-      </c>
-      <c r="D8" t="n">
-        <v>305.0119520502283</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -820,12 +768,6 @@
       <c r="B9" t="n">
         <v>148</v>
       </c>
-      <c r="C9" t="n">
-        <v>-50.5552212464661</v>
-      </c>
-      <c r="D9" t="n">
-        <v>348.3662611191471</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -834,12 +776,6 @@
       <c r="B10" t="n">
         <v>163</v>
       </c>
-      <c r="C10" t="n">
-        <v>-21.28925371045343</v>
-      </c>
-      <c r="D10" t="n">
-        <v>365.0164580439715</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -848,12 +784,6 @@
       <c r="B11" t="n">
         <v>178</v>
       </c>
-      <c r="C11" t="n">
-        <v>-20.9197227339335</v>
-      </c>
-      <c r="D11" t="n">
-        <v>375.2216858491018</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -862,12 +792,6 @@
       <c r="B12" t="n">
         <v>192</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.269052105489651</v>
-      </c>
-      <c r="D12" t="n">
-        <v>382.4200197913253</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -876,12 +800,6 @@
       <c r="B13" t="n">
         <v>207</v>
       </c>
-      <c r="C13" t="n">
-        <v>-5.381024233271095</v>
-      </c>
-      <c r="D13" t="n">
-        <v>407.0069994110447</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -890,12 +808,6 @@
       <c r="B14" t="n">
         <v>311</v>
       </c>
-      <c r="C14" t="n">
-        <v>101.7321139755431</v>
-      </c>
-      <c r="D14" t="n">
-        <v>499.1458015266226</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -904,12 +816,6 @@
       <c r="B15" t="n">
         <v>326</v>
       </c>
-      <c r="C15" t="n">
-        <v>132.2965326440833</v>
-      </c>
-      <c r="D15" t="n">
-        <v>517.2241847806027</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -918,12 +824,6 @@
       <c r="B16" t="n">
         <v>356</v>
       </c>
-      <c r="C16" t="n">
-        <v>156.2550372241217</v>
-      </c>
-      <c r="D16" t="n">
-        <v>550.1360639969877</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -932,12 +832,6 @@
       <c r="B17" t="n">
         <v>371</v>
       </c>
-      <c r="C17" t="n">
-        <v>151.9049238179728</v>
-      </c>
-      <c r="D17" t="n">
-        <v>564.7317049688149</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -946,12 +840,6 @@
       <c r="B18" t="n">
         <v>415</v>
       </c>
-      <c r="C18" t="n">
-        <v>213.1826002402472</v>
-      </c>
-      <c r="D18" t="n">
-        <v>622.0703144495137</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -960,12 +848,6 @@
       <c r="B19" t="n">
         <v>430</v>
       </c>
-      <c r="C19" t="n">
-        <v>228.049112920623</v>
-      </c>
-      <c r="D19" t="n">
-        <v>624.9822311758999</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -974,12 +856,6 @@
       <c r="B20" t="n">
         <v>445</v>
       </c>
-      <c r="C20" t="n">
-        <v>255.3693283485948</v>
-      </c>
-      <c r="D20" t="n">
-        <v>636.900398491346</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -988,12 +864,6 @@
       <c r="B21" t="n">
         <v>460</v>
       </c>
-      <c r="C21" t="n">
-        <v>248.8865893315744</v>
-      </c>
-      <c r="D21" t="n">
-        <v>664.7457304503345</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1002,12 +872,6 @@
       <c r="B22" t="n">
         <v>475</v>
       </c>
-      <c r="C22" t="n">
-        <v>280.297783913797</v>
-      </c>
-      <c r="D22" t="n">
-        <v>691.8313905845878</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1016,12 +880,6 @@
       <c r="B23" t="n">
         <v>489</v>
       </c>
-      <c r="C23" t="n">
-        <v>293.6652108723027</v>
-      </c>
-      <c r="D23" t="n">
-        <v>692.875916868991</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1030,12 +888,6 @@
       <c r="B24" t="n">
         <v>504</v>
       </c>
-      <c r="C24" t="n">
-        <v>313.9369297346863</v>
-      </c>
-      <c r="D24" t="n">
-        <v>712.1068818704352</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1044,12 +896,6 @@
       <c r="B25" t="n">
         <v>519</v>
       </c>
-      <c r="C25" t="n">
-        <v>330.9573435869801</v>
-      </c>
-      <c r="D25" t="n">
-        <v>715.4670458489239</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1057,12 +903,6 @@
       </c>
       <c r="B26" t="n">
         <v>534</v>
-      </c>
-      <c r="C26" t="n">
-        <v>325.682828113774</v>
-      </c>
-      <c r="D26" t="n">
-        <v>736.2643963286756</v>
       </c>
     </row>
   </sheetData>
